--- a/Common/__tables__.xlsx
+++ b/Common/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3DF1C-BB81-CA44-BC69-9B9C0CE404FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07CAFF-BFD3-1D4E-884F-CAA495C115A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13640" yWindow="11420" windowWidth="20480" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,11 +169,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>global/全局配置表.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>global/全局文本表.xlsx</t>
+    <t>Global/全局配置表.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global/全局文本表.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/Common/__tables__.xlsx
+++ b/Common/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07CAFF-BFD3-1D4E-884F-CAA495C115A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E13AF-B86C-7242-9EC6-4E4010630385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13640" yWindow="11420" windowWidth="20480" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>全局文本配置表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>item.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -149,10 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>common.GlobalText</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>common.Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -161,19 +153,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>GlobalTextData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemData</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Global/全局配置表.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global/全局文本表.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -707,16 +691,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -727,49 +711,29 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Common/__tables__.xlsx
+++ b/Common/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42E13AF-B86C-7242-9EC6-4E4010630385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEF2D32-C53A-3E48-94B3-E6AAB0B2FE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="11420" windowWidth="20480" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="11300" windowWidth="20480" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,23 +141,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>common.GlobalConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.Item</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GlobalConfigData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Global/全局配置表.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.Item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalConfigInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +557,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -691,16 +691,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>33</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
